--- a/data/china_ie_partner/2019-06.xlsx
+++ b/data/china_ie_partner/2019-06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7E0AC-28F7-BC47-B571-8435AF5500FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718A798-9E5E-6940-98BA-05E5668E3827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -703,79 +46,980 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -832,10 +1076,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1202,7 +1447,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1218,24 +1463,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>35540</v>
+        <v>52227</v>
       </c>
       <c r="C2" s="3">
-        <v>35007</v>
+        <v>51447</v>
       </c>
       <c r="D2" s="2">
-        <v>533</v>
+        <v>779</v>
       </c>
       <c r="E2" s="5">
         <v>2019</v>
@@ -1249,17 +1494,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>275202</v>
+        <v>407958</v>
       </c>
       <c r="C3" s="3">
-        <v>254427</v>
+        <v>377690</v>
       </c>
       <c r="D3" s="3">
-        <v>20776</v>
+        <v>30267</v>
       </c>
       <c r="E3" s="5">
         <v>2019</v>
@@ -1273,17 +1518,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1013049</v>
+        <v>1488520</v>
       </c>
       <c r="C4" s="3">
-        <v>952948</v>
+        <v>1400963</v>
       </c>
       <c r="D4" s="3">
-        <v>60101</v>
+        <v>87557</v>
       </c>
       <c r="E4" s="5">
         <v>2019</v>
@@ -1297,14 +1542,14 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>1060</v>
+        <v>1560</v>
       </c>
       <c r="C5" s="3">
-        <v>1060</v>
+        <v>1560</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1321,17 +1566,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>32931</v>
+        <v>48128</v>
       </c>
       <c r="C6" s="3">
-        <v>25308</v>
+        <v>36991</v>
       </c>
       <c r="D6" s="3">
-        <v>7623</v>
+        <v>11136</v>
       </c>
       <c r="E6" s="5">
         <v>2019</v>
@@ -1345,17 +1590,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>1120573</v>
+        <v>1633311</v>
       </c>
       <c r="C7" s="3">
-        <v>738198</v>
+        <v>1077152</v>
       </c>
       <c r="D7" s="3">
-        <v>382375</v>
+        <v>556159</v>
       </c>
       <c r="E7" s="5">
         <v>2019</v>
@@ -1369,17 +1614,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="A8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>587474</v>
+        <v>861003</v>
       </c>
       <c r="C8" s="3">
-        <v>497047</v>
+        <v>729021</v>
       </c>
       <c r="D8" s="3">
-        <v>90427</v>
+        <v>131981</v>
       </c>
       <c r="E8" s="5">
         <v>2019</v>
@@ -1393,17 +1638,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>31784</v>
+        <v>46534</v>
       </c>
       <c r="C9" s="3">
-        <v>26735</v>
+        <v>39188</v>
       </c>
       <c r="D9" s="3">
-        <v>5049</v>
+        <v>7346</v>
       </c>
       <c r="E9" s="5">
         <v>2019</v>
@@ -1417,17 +1662,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>155357</v>
+        <v>226639</v>
       </c>
       <c r="C10" s="3">
-        <v>145684</v>
+        <v>212570</v>
       </c>
       <c r="D10" s="3">
-        <v>9672</v>
+        <v>14069</v>
       </c>
       <c r="E10" s="5">
         <v>2019</v>
@@ -1442,16 +1687,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="7" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>16544997</v>
+        <v>24168427</v>
       </c>
       <c r="C11" s="3">
-        <v>15962849</v>
+        <v>23319160</v>
       </c>
       <c r="D11" s="3">
-        <v>582148</v>
+        <v>849267</v>
       </c>
       <c r="E11" s="5">
         <v>2019</v>
@@ -1465,17 +1710,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>5368369</v>
+        <v>7866809</v>
       </c>
       <c r="C12" s="3">
-        <v>4525876</v>
+        <v>6635820</v>
       </c>
       <c r="D12" s="3">
-        <v>842493</v>
+        <v>1230989</v>
       </c>
       <c r="E12" s="5">
         <v>2019</v>
@@ -1489,17 +1734,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>4304775</v>
+        <v>6306772</v>
       </c>
       <c r="C13" s="3">
-        <v>2571849</v>
+        <v>3769285</v>
       </c>
       <c r="D13" s="3">
-        <v>1732927</v>
+        <v>2537487</v>
       </c>
       <c r="E13" s="5">
         <v>2019</v>
@@ -1513,17 +1758,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>1215798</v>
+        <v>1775900</v>
       </c>
       <c r="C14" s="3">
-        <v>557448</v>
+        <v>815703</v>
       </c>
       <c r="D14" s="3">
-        <v>658349</v>
+        <v>960197</v>
       </c>
       <c r="E14" s="5">
         <v>2019</v>
@@ -1537,17 +1782,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>1766013</v>
+        <v>2578017</v>
       </c>
       <c r="C15" s="3">
-        <v>553268</v>
+        <v>811429</v>
       </c>
       <c r="D15" s="3">
-        <v>1212745</v>
+        <v>1766588</v>
       </c>
       <c r="E15" s="5">
         <v>2019</v>
@@ -1561,17 +1806,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>840682</v>
+        <v>1230321</v>
       </c>
       <c r="C16" s="3">
-        <v>543222</v>
+        <v>796312</v>
       </c>
       <c r="D16" s="3">
-        <v>297460</v>
+        <v>434008</v>
       </c>
       <c r="E16" s="5">
         <v>2019</v>
@@ -1585,17 +1830,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>17855967</v>
+        <v>26133336</v>
       </c>
       <c r="C17" s="3">
-        <v>8275892</v>
+        <v>12130573</v>
       </c>
       <c r="D17" s="3">
-        <v>9580074</v>
+        <v>14002763</v>
       </c>
       <c r="E17" s="5">
         <v>2019</v>
@@ -1609,17 +1854,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>233440</v>
+        <v>342600</v>
       </c>
       <c r="C18" s="3">
-        <v>217260</v>
+        <v>318889</v>
       </c>
       <c r="D18" s="3">
-        <v>16179</v>
+        <v>23710</v>
       </c>
       <c r="E18" s="5">
         <v>2019</v>
@@ -1633,17 +1878,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>882492</v>
+        <v>1291359</v>
       </c>
       <c r="C19" s="3">
-        <v>208070</v>
+        <v>305525</v>
       </c>
       <c r="D19" s="3">
-        <v>674422</v>
+        <v>985834</v>
       </c>
       <c r="E19" s="5">
         <v>2019</v>
@@ -1657,17 +1902,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>212831</v>
+        <v>309718</v>
       </c>
       <c r="C20" s="3">
-        <v>93775</v>
+        <v>136601</v>
       </c>
       <c r="D20" s="3">
-        <v>119056</v>
+        <v>173117</v>
       </c>
       <c r="E20" s="5">
         <v>2019</v>
@@ -1681,17 +1926,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>101266</v>
+        <v>148517</v>
       </c>
       <c r="C21" s="3">
-        <v>99508</v>
+        <v>145942</v>
       </c>
       <c r="D21" s="3">
-        <v>1758</v>
+        <v>2575</v>
       </c>
       <c r="E21" s="5">
         <v>2019</v>
@@ -1705,17 +1950,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="4" t="s">
-        <v>225</v>
+      <c r="A22" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>194627</v>
+        <v>284957</v>
       </c>
       <c r="C22" s="3">
-        <v>191602</v>
+        <v>280555</v>
       </c>
       <c r="D22" s="3">
-        <v>3024</v>
+        <v>4402</v>
       </c>
       <c r="E22" s="5">
         <v>2019</v>
@@ -1729,17 +1974,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="4" t="s">
-        <v>221</v>
+      <c r="A23" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>7149419</v>
+        <v>10451595</v>
       </c>
       <c r="C23" s="3">
-        <v>3038185</v>
+        <v>4449065</v>
       </c>
       <c r="D23" s="3">
-        <v>4111235</v>
+        <v>6002530</v>
       </c>
       <c r="E23" s="5">
         <v>2019</v>
@@ -1753,17 +1998,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
+      <c r="A24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>31808</v>
+        <v>46462</v>
       </c>
       <c r="C24" s="3">
-        <v>17754</v>
+        <v>25989</v>
       </c>
       <c r="D24" s="3">
-        <v>14054</v>
+        <v>20472</v>
       </c>
       <c r="E24" s="5">
         <v>2019</v>
@@ -1777,17 +2022,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>499877</v>
+        <v>729075</v>
       </c>
       <c r="C25" s="3">
-        <v>125663</v>
+        <v>182874</v>
       </c>
       <c r="D25" s="3">
-        <v>374214</v>
+        <v>546201</v>
       </c>
       <c r="E25" s="5">
         <v>2019</v>
@@ -1801,17 +2046,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="4" t="s">
-        <v>226</v>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>81768</v>
+        <v>119334</v>
       </c>
       <c r="C26" s="3">
-        <v>80226</v>
+        <v>117091</v>
       </c>
       <c r="D26" s="3">
-        <v>1542</v>
+        <v>2243</v>
       </c>
       <c r="E26" s="5">
         <v>2019</v>
@@ -1825,17 +2070,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
+      <c r="A27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1044547</v>
+        <v>1525027</v>
       </c>
       <c r="C27" s="3">
-        <v>182510</v>
+        <v>267200</v>
       </c>
       <c r="D27" s="3">
-        <v>862037</v>
+        <v>1257826</v>
       </c>
       <c r="E27" s="5">
         <v>2019</v>
@@ -1849,17 +2094,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
+      <c r="A28" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>956268</v>
+        <v>1401418</v>
       </c>
       <c r="C28" s="3">
-        <v>863134</v>
+        <v>1265599</v>
       </c>
       <c r="D28" s="3">
-        <v>93134</v>
+        <v>135820</v>
       </c>
       <c r="E28" s="5">
         <v>2019</v>
@@ -1873,17 +2118,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
+      <c r="A29" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>5687</v>
+        <v>8355</v>
       </c>
       <c r="C29" s="3">
-        <v>5686</v>
+        <v>8355</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
         <v>2019</v>
@@ -1897,17 +2142,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
+      <c r="A30" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>3388443</v>
+        <v>4962552</v>
       </c>
       <c r="C30" s="3">
-        <v>2256235</v>
+        <v>3309230</v>
       </c>
       <c r="D30" s="3">
-        <v>1132208</v>
+        <v>1653322</v>
       </c>
       <c r="E30" s="5">
         <v>2019</v>
@@ -1921,17 +2166,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
+      <c r="A31" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>563301</v>
+        <v>822857</v>
       </c>
       <c r="C31" s="3">
-        <v>135748</v>
+        <v>198771</v>
       </c>
       <c r="D31" s="3">
-        <v>427553</v>
+        <v>624086</v>
       </c>
       <c r="E31" s="5">
         <v>2019</v>
@@ -1945,17 +2190,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+      <c r="A32" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>4853388</v>
+        <v>7099454</v>
       </c>
       <c r="C32" s="3">
-        <v>1471581</v>
+        <v>2158346</v>
       </c>
       <c r="D32" s="3">
-        <v>3381807</v>
+        <v>4941108</v>
       </c>
       <c r="E32" s="5">
         <v>2019</v>
@@ -1969,17 +2214,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
+      <c r="A33" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>4611765</v>
+        <v>6757505</v>
       </c>
       <c r="C33" s="3">
-        <v>2941979</v>
+        <v>4314992</v>
       </c>
       <c r="D33" s="3">
-        <v>1669786</v>
+        <v>2442513</v>
       </c>
       <c r="E33" s="5">
         <v>2019</v>
@@ -1993,17 +2238,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
+      <c r="A34" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>15555118</v>
+        <v>22730411</v>
       </c>
       <c r="C34" s="3">
-        <v>6549495</v>
+        <v>9578951</v>
       </c>
       <c r="D34" s="3">
-        <v>9005623</v>
+        <v>13151460</v>
       </c>
       <c r="E34" s="5">
         <v>2019</v>
@@ -2017,17 +2262,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>220289</v>
+        <v>322528</v>
       </c>
       <c r="C35" s="3">
-        <v>200973</v>
+        <v>294386</v>
       </c>
       <c r="D35" s="3">
-        <v>19316</v>
+        <v>28142</v>
       </c>
       <c r="E35" s="5">
         <v>2019</v>
@@ -2041,17 +2286,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
+      <c r="A36" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>71787</v>
+        <v>105297</v>
       </c>
       <c r="C36" s="3">
-        <v>71748</v>
+        <v>105240</v>
       </c>
       <c r="D36" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
@@ -2065,17 +2310,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
+      <c r="A37" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>5103488</v>
+        <v>7469888</v>
       </c>
       <c r="C37" s="3">
-        <v>2633364</v>
+        <v>3860061</v>
       </c>
       <c r="D37" s="3">
-        <v>2470125</v>
+        <v>3609827</v>
       </c>
       <c r="E37" s="5">
         <v>2019</v>
@@ -2089,17 +2334,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
+      <c r="A38" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1129736</v>
+        <v>1655959</v>
       </c>
       <c r="C38" s="3">
-        <v>915283</v>
+        <v>1343270</v>
       </c>
       <c r="D38" s="3">
-        <v>214452</v>
+        <v>312688</v>
       </c>
       <c r="E38" s="5">
         <v>2019</v>
@@ -2113,17 +2358,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
+      <c r="A39" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2417584</v>
+        <v>3537962</v>
       </c>
       <c r="C39" s="3">
-        <v>1748027</v>
+        <v>2560855</v>
       </c>
       <c r="D39" s="3">
-        <v>669557</v>
+        <v>977107</v>
       </c>
       <c r="E39" s="5">
         <v>2019</v>
@@ -2137,17 +2382,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
+      <c r="A40" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>264782</v>
+        <v>387719</v>
       </c>
       <c r="C40" s="3">
-        <v>163124</v>
+        <v>239634</v>
       </c>
       <c r="D40" s="3">
-        <v>101658</v>
+        <v>148085</v>
       </c>
       <c r="E40" s="5">
         <v>2019</v>
@@ -2161,17 +2406,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
+      <c r="A41" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>8666191</v>
+        <v>12659336</v>
       </c>
       <c r="C41" s="3">
-        <v>5575949</v>
+        <v>8152714</v>
       </c>
       <c r="D41" s="3">
-        <v>3090242</v>
+        <v>4506622</v>
       </c>
       <c r="E41" s="5">
         <v>2019</v>
@@ -2185,17 +2430,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="4" t="s">
-        <v>40</v>
+      <c r="A42" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>6993514</v>
+        <v>10218329</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>6993514</v>
+        <v>10218329</v>
       </c>
       <c r="E42" s="5">
         <v>2019</v>
@@ -2210,16 +2455,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="7" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>12178081</v>
+        <v>17808074</v>
       </c>
       <c r="C43" s="3">
-        <v>2982853</v>
+        <v>4365841</v>
       </c>
       <c r="D43" s="3">
-        <v>9195228</v>
+        <v>13442233</v>
       </c>
       <c r="E43" s="5">
         <v>2019</v>
@@ -2233,17 +2478,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
+      <c r="A44" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>6226</v>
+        <v>9078</v>
       </c>
       <c r="C44" s="3">
-        <v>6176</v>
+        <v>9005</v>
       </c>
       <c r="D44" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E44" s="5">
         <v>2019</v>
@@ -2257,17 +2502,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="4" t="s">
-        <v>42</v>
+      <c r="A45" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1246997</v>
+        <v>1823509</v>
       </c>
       <c r="C45" s="3">
-        <v>726583</v>
+        <v>1062641</v>
       </c>
       <c r="D45" s="3">
-        <v>520414</v>
+        <v>760868</v>
       </c>
       <c r="E45" s="5">
         <v>2019</v>
@@ -2281,17 +2526,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="4" t="s">
-        <v>43</v>
+      <c r="A46" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>248766</v>
+        <v>363008</v>
       </c>
       <c r="C46" s="3">
-        <v>246766</v>
+        <v>360090</v>
       </c>
       <c r="D46" s="3">
-        <v>1999</v>
+        <v>2918</v>
       </c>
       <c r="E46" s="5">
         <v>2019</v>
@@ -2305,17 +2550,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="4" t="s">
-        <v>44</v>
+      <c r="A47" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>87055</v>
+        <v>127235</v>
       </c>
       <c r="C47" s="3">
-        <v>81889</v>
+        <v>119691</v>
       </c>
       <c r="D47" s="3">
-        <v>5166</v>
+        <v>7544</v>
       </c>
       <c r="E47" s="5">
         <v>2019</v>
@@ -2329,17 +2574,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="4" t="s">
-        <v>45</v>
+      <c r="A48" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>523776</v>
+        <v>763113</v>
       </c>
       <c r="C48" s="3">
-        <v>18702</v>
+        <v>27408</v>
       </c>
       <c r="D48" s="3">
-        <v>505074</v>
+        <v>735705</v>
       </c>
       <c r="E48" s="5">
         <v>2019</v>
@@ -2353,17 +2598,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="4" t="s">
-        <v>227</v>
+      <c r="A49" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>468766</v>
+        <v>686425</v>
       </c>
       <c r="C49" s="3">
-        <v>306362</v>
+        <v>449475</v>
       </c>
       <c r="D49" s="3">
-        <v>162404</v>
+        <v>236951</v>
       </c>
       <c r="E49" s="5">
         <v>2019</v>
@@ -2377,17 +2622,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="4" t="s">
-        <v>46</v>
+      <c r="A50" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>339</v>
+        <v>494</v>
       </c>
       <c r="C50" s="2">
-        <v>337</v>
+        <v>490</v>
       </c>
       <c r="D50" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5">
         <v>2019</v>
@@ -2401,17 +2646,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="4" t="s">
-        <v>47</v>
+      <c r="A51" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>11673780</v>
+        <v>17085650</v>
       </c>
       <c r="C51" s="3">
-        <v>6334858</v>
+        <v>9292926</v>
       </c>
       <c r="D51" s="3">
-        <v>5338922</v>
+        <v>7792724</v>
       </c>
       <c r="E51" s="5">
         <v>2019</v>
@@ -2425,17 +2670,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="4" t="s">
-        <v>48</v>
+      <c r="A52" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>488065</v>
+        <v>714872</v>
       </c>
       <c r="C52" s="3">
-        <v>425438</v>
+        <v>623644</v>
       </c>
       <c r="D52" s="3">
-        <v>62626</v>
+        <v>91228</v>
       </c>
       <c r="E52" s="5">
         <v>2019</v>
@@ -2449,17 +2694,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="4" t="s">
-        <v>49</v>
+      <c r="A53" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1745305</v>
+        <v>2545654</v>
       </c>
       <c r="C53" s="3">
-        <v>129294</v>
+        <v>189711</v>
       </c>
       <c r="D53" s="3">
-        <v>1616012</v>
+        <v>2355943</v>
       </c>
       <c r="E53" s="5">
         <v>2019</v>
@@ -2473,17 +2718,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="4" t="s">
-        <v>50</v>
+      <c r="A54" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>164928</v>
+        <v>241503</v>
       </c>
       <c r="C54" s="3">
-        <v>145920</v>
+        <v>213697</v>
       </c>
       <c r="D54" s="3">
-        <v>19009</v>
+        <v>27806</v>
       </c>
       <c r="E54" s="5">
         <v>2019</v>
@@ -2497,17 +2742,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="4" t="s">
-        <v>51</v>
+      <c r="A55" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>13996</v>
+        <v>20527</v>
       </c>
       <c r="C55" s="3">
-        <v>12952</v>
+        <v>19006</v>
       </c>
       <c r="D55" s="3">
-        <v>1044</v>
+        <v>1521</v>
       </c>
       <c r="E55" s="5">
         <v>2019</v>
@@ -2521,17 +2766,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="4" t="s">
-        <v>52</v>
+      <c r="A56" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>6563</v>
+        <v>9645</v>
       </c>
       <c r="C56" s="3">
-        <v>5038</v>
+        <v>7424</v>
       </c>
       <c r="D56" s="3">
-        <v>1525</v>
+        <v>2221</v>
       </c>
       <c r="E56" s="5">
         <v>2019</v>
@@ -2545,17 +2790,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="4" t="s">
-        <v>228</v>
+      <c r="A57" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>172233</v>
+        <v>251739</v>
       </c>
       <c r="C57" s="3">
-        <v>95191</v>
+        <v>139540</v>
       </c>
       <c r="D57" s="3">
-        <v>77042</v>
+        <v>112200</v>
       </c>
       <c r="E57" s="5">
         <v>2019</v>
@@ -2569,14 +2814,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="4" t="s">
-        <v>53</v>
+      <c r="A58" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -2593,17 +2838,17 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="4" t="s">
-        <v>54</v>
+      <c r="A59" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>3423</v>
+        <v>5023</v>
       </c>
       <c r="C59" s="3">
-        <v>3422</v>
+        <v>5020</v>
       </c>
       <c r="D59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5">
         <v>2019</v>
@@ -2617,17 +2862,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="4" t="s">
-        <v>55</v>
+      <c r="A60" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>3360</v>
-      </c>
-      <c r="C60" s="2">
-        <v>720</v>
+        <v>4889</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1060</v>
       </c>
       <c r="D60" s="3">
-        <v>2640</v>
+        <v>3829</v>
       </c>
       <c r="E60" s="5">
         <v>2019</v>
@@ -2641,14 +2886,14 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
+      <c r="A61" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -2665,17 +2910,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="4" t="s">
-        <v>57</v>
+      <c r="A62" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>66329</v>
+        <v>96736</v>
       </c>
       <c r="C62" s="3">
-        <v>23688</v>
+        <v>34622</v>
       </c>
       <c r="D62" s="3">
-        <v>42641</v>
+        <v>62115</v>
       </c>
       <c r="E62" s="5">
         <v>2019</v>
@@ -2689,14 +2934,14 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
+      <c r="A63" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>2017</v>
+        <v>2956</v>
       </c>
       <c r="C63" s="3">
-        <v>2016</v>
+        <v>2954</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -2713,17 +2958,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="4" t="s">
-        <v>59</v>
+      <c r="A64" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>309168</v>
+        <v>452050</v>
       </c>
       <c r="C64" s="3">
-        <v>23336</v>
+        <v>34223</v>
       </c>
       <c r="D64" s="3">
-        <v>285832</v>
+        <v>417827</v>
       </c>
       <c r="E64" s="5">
         <v>2019</v>
@@ -2737,17 +2982,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="4" t="s">
-        <v>60</v>
+      <c r="A65" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>108718</v>
+        <v>159456</v>
       </c>
       <c r="C65" s="3">
-        <v>108656</v>
+        <v>159365</v>
       </c>
       <c r="D65" s="2">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E65" s="5">
         <v>2019</v>
@@ -2761,17 +3006,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="4" t="s">
-        <v>61</v>
+      <c r="A66" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>746431</v>
+        <v>1094680</v>
       </c>
       <c r="C66" s="3">
-        <v>660006</v>
+        <v>968632</v>
       </c>
       <c r="D66" s="3">
-        <v>86425</v>
+        <v>126048</v>
       </c>
       <c r="E66" s="5">
         <v>2019</v>
@@ -2785,17 +3030,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="4" t="s">
-        <v>62</v>
+      <c r="A67" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>55866</v>
+        <v>81512</v>
       </c>
       <c r="C67" s="3">
-        <v>5710</v>
+        <v>8359</v>
       </c>
       <c r="D67" s="3">
-        <v>50156</v>
+        <v>73153</v>
       </c>
       <c r="E67" s="5">
         <v>2019</v>
@@ -2809,17 +3054,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="4" t="s">
-        <v>63</v>
+      <c r="A68" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>138817</v>
+        <v>203473</v>
       </c>
       <c r="C68" s="3">
-        <v>101692</v>
+        <v>149229</v>
       </c>
       <c r="D68" s="3">
-        <v>37126</v>
+        <v>54243</v>
       </c>
       <c r="E68" s="5">
         <v>2019</v>
@@ -2833,17 +3078,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="4" t="s">
-        <v>64</v>
+      <c r="A69" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>246918</v>
+        <v>361341</v>
       </c>
       <c r="C69" s="3">
-        <v>19201</v>
+        <v>28139</v>
       </c>
       <c r="D69" s="3">
-        <v>227717</v>
+        <v>333202</v>
       </c>
       <c r="E69" s="5">
         <v>2019</v>
@@ -2857,17 +3102,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="4" t="s">
-        <v>65</v>
+      <c r="A70" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>40364</v>
+        <v>59070</v>
       </c>
       <c r="C70" s="3">
-        <v>29986</v>
+        <v>43939</v>
       </c>
       <c r="D70" s="3">
-        <v>10378</v>
+        <v>15131</v>
       </c>
       <c r="E70" s="5">
         <v>2019</v>
@@ -2881,17 +3126,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="4" t="s">
-        <v>66</v>
+      <c r="A71" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>461632</v>
+        <v>675496</v>
       </c>
       <c r="C71" s="3">
-        <v>294761</v>
+        <v>432387</v>
       </c>
       <c r="D71" s="3">
-        <v>166871</v>
+        <v>243108</v>
       </c>
       <c r="E71" s="5">
         <v>2019</v>
@@ -2905,17 +3150,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="4" t="s">
-        <v>67</v>
+      <c r="A72" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>279889</v>
+        <v>408671</v>
       </c>
       <c r="C72" s="3">
-        <v>108765</v>
+        <v>159211</v>
       </c>
       <c r="D72" s="3">
-        <v>171124</v>
+        <v>249460</v>
       </c>
       <c r="E72" s="5">
         <v>2019</v>
@@ -2929,17 +3174,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="4" t="s">
-        <v>68</v>
+      <c r="A73" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>1388</v>
+        <v>2028</v>
       </c>
       <c r="C73" s="2">
-        <v>652</v>
-      </c>
-      <c r="D73" s="2">
-        <v>735</v>
+        <v>956</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1071</v>
       </c>
       <c r="E73" s="5">
         <v>2019</v>
@@ -2953,17 +3198,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="4" t="s">
-        <v>69</v>
+      <c r="A74" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>159332</v>
+        <v>233407</v>
       </c>
       <c r="C74" s="3">
-        <v>135445</v>
+        <v>198575</v>
       </c>
       <c r="D74" s="3">
-        <v>23887</v>
+        <v>34832</v>
       </c>
       <c r="E74" s="5">
         <v>2019</v>
@@ -2977,17 +3222,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="4" t="s">
-        <v>70</v>
+      <c r="A75" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>297784</v>
+        <v>437301</v>
       </c>
       <c r="C75" s="3">
-        <v>289030</v>
+        <v>424454</v>
       </c>
       <c r="D75" s="3">
-        <v>8754</v>
+        <v>12848</v>
       </c>
       <c r="E75" s="5">
         <v>2019</v>
@@ -3001,17 +3246,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="4" t="s">
-        <v>71</v>
+      <c r="A76" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>204644</v>
+        <v>303435</v>
       </c>
       <c r="C76" s="3">
-        <v>200027</v>
+        <v>296711</v>
       </c>
       <c r="D76" s="3">
-        <v>4616</v>
+        <v>6725</v>
       </c>
       <c r="E76" s="5">
         <v>2019</v>
@@ -3025,17 +3270,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="4" t="s">
-        <v>72</v>
+      <c r="A77" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>354612</v>
+        <v>518448</v>
       </c>
       <c r="C77" s="3">
-        <v>115028</v>
+        <v>168550</v>
       </c>
       <c r="D77" s="3">
-        <v>239585</v>
+        <v>349898</v>
       </c>
       <c r="E77" s="5">
         <v>2019</v>
@@ -3049,17 +3294,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="4" t="s">
-        <v>73</v>
+      <c r="A78" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>79063</v>
+        <v>115816</v>
       </c>
       <c r="C78" s="3">
-        <v>66354</v>
+        <v>97297</v>
       </c>
       <c r="D78" s="3">
-        <v>12710</v>
+        <v>18520</v>
       </c>
       <c r="E78" s="5">
         <v>2019</v>
@@ -3073,17 +3318,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="4" t="s">
-        <v>74</v>
+      <c r="A79" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>13496</v>
+        <v>19823</v>
       </c>
       <c r="C79" s="3">
-        <v>13372</v>
+        <v>19642</v>
       </c>
       <c r="D79" s="2">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="E79" s="5">
         <v>2019</v>
@@ -3097,17 +3342,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="4" t="s">
-        <v>229</v>
+      <c r="A80" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>31948</v>
+        <v>46730</v>
       </c>
       <c r="C80" s="3">
-        <v>18978</v>
+        <v>27787</v>
       </c>
       <c r="D80" s="3">
-        <v>12970</v>
+        <v>18943</v>
       </c>
       <c r="E80" s="5">
         <v>2019</v>
@@ -3121,17 +3366,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="4" t="s">
-        <v>75</v>
+      <c r="A81" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>89471</v>
+        <v>130785</v>
       </c>
       <c r="C81" s="3">
-        <v>57070</v>
+        <v>83580</v>
       </c>
       <c r="D81" s="3">
-        <v>32401</v>
+        <v>47205</v>
       </c>
       <c r="E81" s="5">
         <v>2019</v>
@@ -3145,17 +3390,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="4" t="s">
-        <v>76</v>
+      <c r="A82" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>41891</v>
+        <v>61298</v>
       </c>
       <c r="C82" s="3">
-        <v>39267</v>
+        <v>57463</v>
       </c>
       <c r="D82" s="3">
-        <v>2624</v>
+        <v>3835</v>
       </c>
       <c r="E82" s="5">
         <v>2019</v>
@@ -3169,17 +3414,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="4" t="s">
-        <v>77</v>
+      <c r="A83" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>250898</v>
+        <v>367484</v>
       </c>
       <c r="C83" s="3">
-        <v>216952</v>
+        <v>317893</v>
       </c>
       <c r="D83" s="3">
-        <v>33946</v>
+        <v>49590</v>
       </c>
       <c r="E83" s="5">
         <v>2019</v>
@@ -3193,17 +3438,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="4" t="s">
-        <v>78</v>
+      <c r="A84" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>126910</v>
+        <v>185730</v>
       </c>
       <c r="C84" s="3">
-        <v>98568</v>
+        <v>144439</v>
       </c>
       <c r="D84" s="3">
-        <v>28342</v>
+        <v>41291</v>
       </c>
       <c r="E84" s="5">
         <v>2019</v>
@@ -3217,17 +3462,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="4" t="s">
-        <v>79</v>
+      <c r="A85" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>103715</v>
+        <v>154140</v>
       </c>
       <c r="C85" s="3">
-        <v>10717</v>
+        <v>15692</v>
       </c>
       <c r="D85" s="3">
-        <v>92998</v>
+        <v>138447</v>
       </c>
       <c r="E85" s="5">
         <v>2019</v>
@@ -3241,17 +3486,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="4" t="s">
-        <v>80</v>
+      <c r="A86" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>14266</v>
+        <v>20894</v>
       </c>
       <c r="C86" s="3">
-        <v>6876</v>
+        <v>10100</v>
       </c>
       <c r="D86" s="3">
-        <v>7390</v>
+        <v>10794</v>
       </c>
       <c r="E86" s="5">
         <v>2019</v>
@@ -3265,17 +3510,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="4" t="s">
-        <v>81</v>
+      <c r="A87" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>1113500</v>
+        <v>1633025</v>
       </c>
       <c r="C87" s="3">
-        <v>1008068</v>
+        <v>1479347</v>
       </c>
       <c r="D87" s="3">
-        <v>105432</v>
+        <v>153678</v>
       </c>
       <c r="E87" s="5">
         <v>2019</v>
@@ -3289,14 +3534,14 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="4" t="s">
-        <v>82</v>
+      <c r="A88" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>9467</v>
+        <v>13852</v>
       </c>
       <c r="C88" s="3">
-        <v>9467</v>
+        <v>13852</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -3313,17 +3558,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="4" t="s">
-        <v>83</v>
+      <c r="A89" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>10915</v>
+        <v>16004</v>
       </c>
       <c r="C89" s="3">
-        <v>9715</v>
+        <v>14239</v>
       </c>
       <c r="D89" s="3">
-        <v>1200</v>
+        <v>1766</v>
       </c>
       <c r="E89" s="5">
         <v>2019</v>
@@ -3337,14 +3582,14 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="4" t="s">
-        <v>84</v>
+      <c r="A90" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>486</v>
+        <v>711</v>
       </c>
       <c r="C90" s="2">
-        <v>486</v>
+        <v>711</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -3361,17 +3606,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="4" t="s">
-        <v>85</v>
+      <c r="A91" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>173379</v>
+        <v>253729</v>
       </c>
       <c r="C91" s="3">
-        <v>152564</v>
+        <v>223363</v>
       </c>
       <c r="D91" s="3">
-        <v>20815</v>
+        <v>30366</v>
       </c>
       <c r="E91" s="5">
         <v>2019</v>
@@ -3385,17 +3630,17 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="4" t="s">
-        <v>86</v>
+      <c r="A92" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>2916</v>
+        <v>4281</v>
       </c>
       <c r="C92" s="3">
-        <v>2916</v>
+        <v>4280</v>
       </c>
       <c r="D92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5">
         <v>2019</v>
@@ -3409,17 +3654,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="4" t="s">
-        <v>87</v>
+      <c r="A93" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>23936</v>
+        <v>35063</v>
       </c>
       <c r="C93" s="3">
-        <v>16678</v>
+        <v>24466</v>
       </c>
       <c r="D93" s="3">
-        <v>7258</v>
+        <v>10597</v>
       </c>
       <c r="E93" s="5">
         <v>2019</v>
@@ -3433,17 +3678,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="4" t="s">
-        <v>88</v>
+      <c r="A94" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>43935</v>
+        <v>64466</v>
       </c>
       <c r="C94" s="3">
-        <v>43231</v>
-      </c>
-      <c r="D94" s="2">
-        <v>704</v>
+        <v>63442</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1024</v>
       </c>
       <c r="E94" s="5">
         <v>2019</v>
@@ -3457,17 +3702,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="4" t="s">
-        <v>230</v>
+      <c r="A95" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2046787</v>
+        <v>2993462</v>
       </c>
       <c r="C95" s="3">
-        <v>863022</v>
+        <v>1264569</v>
       </c>
       <c r="D95" s="3">
-        <v>1183764</v>
+        <v>1728893</v>
       </c>
       <c r="E95" s="5">
         <v>2019</v>
@@ -3481,14 +3726,14 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="4" t="s">
-        <v>89</v>
+      <c r="A96" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -3505,17 +3750,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="4" t="s">
-        <v>90</v>
+      <c r="A97" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>141899</v>
+        <v>207796</v>
       </c>
       <c r="C97" s="3">
-        <v>100332</v>
+        <v>147272</v>
       </c>
       <c r="D97" s="3">
-        <v>41567</v>
+        <v>60524</v>
       </c>
       <c r="E97" s="5">
         <v>2019</v>
@@ -3529,17 +3774,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="4" t="s">
-        <v>91</v>
+      <c r="A98" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>204798</v>
+        <v>300141</v>
       </c>
       <c r="C98" s="3">
-        <v>199592</v>
+        <v>292502</v>
       </c>
       <c r="D98" s="3">
-        <v>5206</v>
+        <v>7638</v>
       </c>
       <c r="E98" s="5">
         <v>2019</v>
@@ -3553,17 +3798,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="4" t="s">
-        <v>92</v>
+      <c r="A99" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>126317</v>
+        <v>185083</v>
       </c>
       <c r="C99" s="3">
-        <v>117191</v>
+        <v>171735</v>
       </c>
       <c r="D99" s="3">
-        <v>9127</v>
+        <v>13348</v>
       </c>
       <c r="E99" s="5">
         <v>2019</v>
@@ -3577,17 +3822,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="4" t="s">
-        <v>93</v>
+      <c r="A100" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>84024</v>
+        <v>123037</v>
       </c>
       <c r="C100" s="3">
-        <v>72030</v>
+        <v>105563</v>
       </c>
       <c r="D100" s="3">
-        <v>11994</v>
+        <v>17474</v>
       </c>
       <c r="E100" s="5">
         <v>2019</v>
@@ -3601,17 +3846,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="4" t="s">
-        <v>94</v>
+      <c r="A101" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>39540</v>
+        <v>58130</v>
       </c>
       <c r="C101" s="3">
-        <v>37479</v>
+        <v>55127</v>
       </c>
       <c r="D101" s="3">
-        <v>2061</v>
+        <v>3003</v>
       </c>
       <c r="E101" s="5">
         <v>2019</v>
@@ -3625,17 +3870,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="4" t="s">
-        <v>95</v>
+      <c r="A102" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>22175</v>
+        <v>32470</v>
       </c>
       <c r="C102" s="3">
-        <v>17586</v>
+        <v>25763</v>
       </c>
       <c r="D102" s="3">
-        <v>4588</v>
+        <v>6708</v>
       </c>
       <c r="E102" s="5">
         <v>2019</v>
@@ -3649,17 +3894,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="4" t="s">
-        <v>96</v>
+      <c r="A103" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>379501</v>
+        <v>554676</v>
       </c>
       <c r="C103" s="3">
-        <v>115164</v>
+        <v>168988</v>
       </c>
       <c r="D103" s="3">
-        <v>264337</v>
+        <v>385688</v>
       </c>
       <c r="E103" s="5">
         <v>2019</v>
@@ -3673,17 +3918,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="4" t="s">
-        <v>231</v>
+      <c r="A104" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>249084</v>
+        <v>363974</v>
       </c>
       <c r="C104" s="3">
-        <v>63840</v>
+        <v>93832</v>
       </c>
       <c r="D104" s="3">
-        <v>185244</v>
+        <v>270141</v>
       </c>
       <c r="E104" s="5">
         <v>2019</v>
@@ -3697,17 +3942,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="4" t="s">
-        <v>97</v>
+      <c r="A105" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>46699</v>
+        <v>68226</v>
       </c>
       <c r="C105" s="3">
-        <v>21986</v>
+        <v>32221</v>
       </c>
       <c r="D105" s="3">
-        <v>24712</v>
+        <v>36005</v>
       </c>
       <c r="E105" s="5">
         <v>2019</v>
@@ -3721,17 +3966,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="4" t="s">
-        <v>232</v>
+      <c r="A106" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>10553</v>
+        <v>15409</v>
       </c>
       <c r="C106" s="3">
-        <v>5744</v>
+        <v>8406</v>
       </c>
       <c r="D106" s="3">
-        <v>4809</v>
+        <v>7004</v>
       </c>
       <c r="E106" s="5">
         <v>2019</v>
@@ -3745,14 +3990,14 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="4" t="s">
-        <v>98</v>
+      <c r="A107" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C107" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -3769,17 +4014,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="4" t="s">
-        <v>99</v>
+      <c r="A108" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>2474</v>
+        <v>3624</v>
       </c>
       <c r="C108" s="3">
-        <v>2436</v>
+        <v>3570</v>
       </c>
       <c r="D108" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E108" s="5">
         <v>2019</v>
@@ -3793,17 +4038,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="4" t="s">
-        <v>100</v>
+      <c r="A109" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>2900</v>
+        <v>4240</v>
       </c>
       <c r="C109" s="3">
-        <v>2897</v>
+        <v>4236</v>
       </c>
       <c r="D109" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="5">
         <v>2019</v>
@@ -3817,14 +4062,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="4" t="s">
-        <v>101</v>
+      <c r="A110" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>1175</v>
+        <v>1724</v>
       </c>
       <c r="C110" s="3">
-        <v>1175</v>
+        <v>1724</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3841,17 +4086,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="4" t="s">
-        <v>102</v>
+      <c r="A111" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>113713</v>
+        <v>165674</v>
       </c>
       <c r="C111" s="3">
-        <v>6965</v>
+        <v>10176</v>
       </c>
       <c r="D111" s="3">
-        <v>106748</v>
+        <v>155498</v>
       </c>
       <c r="E111" s="5">
         <v>2019</v>
@@ -3865,14 +4110,14 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="4" t="s">
-        <v>103</v>
+      <c r="A112" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C112" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -3889,17 +4134,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="4" t="s">
-        <v>104</v>
+      <c r="A113" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1436395</v>
+        <v>2099799</v>
       </c>
       <c r="C113" s="3">
-        <v>1090257</v>
+        <v>1595693</v>
       </c>
       <c r="D113" s="3">
-        <v>346138</v>
+        <v>504106</v>
       </c>
       <c r="E113" s="5">
         <v>2019</v>
@@ -3913,17 +4158,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="4" t="s">
-        <v>105</v>
+      <c r="A114" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>632120</v>
+        <v>924904</v>
       </c>
       <c r="C114" s="3">
-        <v>380022</v>
+        <v>556301</v>
       </c>
       <c r="D114" s="3">
-        <v>252098</v>
+        <v>368603</v>
       </c>
       <c r="E114" s="5">
         <v>2019</v>
@@ -3937,17 +4182,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="4" t="s">
-        <v>106</v>
+      <c r="A115" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>4684969</v>
+        <v>6848897</v>
       </c>
       <c r="C115" s="3">
-        <v>3416473</v>
+        <v>5001862</v>
       </c>
       <c r="D115" s="3">
-        <v>1268496</v>
+        <v>1847035</v>
       </c>
       <c r="E115" s="5">
         <v>2019</v>
@@ -3961,17 +4206,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="4" t="s">
-        <v>107</v>
+      <c r="A116" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10353703</v>
+        <v>15129193</v>
       </c>
       <c r="C116" s="3">
-        <v>4517069</v>
+        <v>6612510</v>
       </c>
       <c r="D116" s="3">
-        <v>5836634</v>
+        <v>8516683</v>
       </c>
       <c r="E116" s="5">
         <v>2019</v>
@@ -3985,17 +4230,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="4" t="s">
-        <v>108</v>
+      <c r="A117" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>3632873</v>
+        <v>5302862</v>
       </c>
       <c r="C117" s="3">
-        <v>1908251</v>
+        <v>2792233</v>
       </c>
       <c r="D117" s="3">
-        <v>1724622</v>
+        <v>2510628</v>
       </c>
       <c r="E117" s="5">
         <v>2019</v>
@@ -4009,17 +4254,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="4" t="s">
-        <v>109</v>
+      <c r="A118" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>968970</v>
+        <v>1412670</v>
       </c>
       <c r="C118" s="3">
-        <v>198796</v>
+        <v>291033</v>
       </c>
       <c r="D118" s="3">
-        <v>770173</v>
+        <v>1121637</v>
       </c>
       <c r="E118" s="5">
         <v>2019</v>
@@ -4033,17 +4278,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="4" t="s">
-        <v>110</v>
+      <c r="A119" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3132256</v>
+        <v>4572468</v>
       </c>
       <c r="C119" s="3">
-        <v>1949152</v>
+        <v>2851568</v>
       </c>
       <c r="D119" s="3">
-        <v>1183104</v>
+        <v>1720900</v>
       </c>
       <c r="E119" s="5">
         <v>2019</v>
@@ -4057,17 +4302,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="4" t="s">
-        <v>111</v>
+      <c r="A120" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>46656</v>
+        <v>68160</v>
       </c>
       <c r="C120" s="3">
-        <v>29923</v>
+        <v>43781</v>
       </c>
       <c r="D120" s="3">
-        <v>16732</v>
+        <v>24379</v>
       </c>
       <c r="E120" s="5">
         <v>2019</v>
@@ -4081,17 +4326,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="4" t="s">
-        <v>112</v>
+      <c r="A121" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>4573446</v>
+        <v>6691702</v>
       </c>
       <c r="C121" s="3">
-        <v>4048654</v>
+        <v>5927088</v>
       </c>
       <c r="D121" s="3">
-        <v>524792</v>
+        <v>764614</v>
       </c>
       <c r="E121" s="5">
         <v>2019</v>
@@ -4105,17 +4350,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="4" t="s">
-        <v>113</v>
+      <c r="A122" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>590064</v>
+        <v>863709</v>
       </c>
       <c r="C122" s="3">
-        <v>550195</v>
+        <v>805722</v>
       </c>
       <c r="D122" s="3">
-        <v>39870</v>
+        <v>57987</v>
       </c>
       <c r="E122" s="5">
         <v>2019</v>
@@ -4129,17 +4374,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="4" t="s">
-        <v>114</v>
+      <c r="A123" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>412424</v>
+        <v>603616</v>
       </c>
       <c r="C123" s="3">
-        <v>282081</v>
+        <v>413481</v>
       </c>
       <c r="D123" s="3">
-        <v>130343</v>
+        <v>190135</v>
       </c>
       <c r="E123" s="5">
         <v>2019</v>
@@ -4153,17 +4398,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="4" t="s">
-        <v>115</v>
+      <c r="A124" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>2052704</v>
+        <v>3001398</v>
       </c>
       <c r="C124" s="3">
-        <v>1594392</v>
+        <v>2332969</v>
       </c>
       <c r="D124" s="3">
-        <v>458312</v>
+        <v>668428</v>
       </c>
       <c r="E124" s="5">
         <v>2019</v>
@@ -4177,17 +4422,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="4" t="s">
-        <v>116</v>
+      <c r="A125" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>40366</v>
+        <v>59127</v>
       </c>
       <c r="C125" s="3">
-        <v>34574</v>
+        <v>50682</v>
       </c>
       <c r="D125" s="3">
-        <v>5792</v>
+        <v>8446</v>
       </c>
       <c r="E125" s="5">
         <v>2019</v>
@@ -4201,17 +4446,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="4" t="s">
-        <v>233</v>
+      <c r="A126" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="C126" s="2">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="D126" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" s="5">
         <v>2019</v>
@@ -4225,17 +4470,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="4" t="s">
-        <v>117</v>
+      <c r="A127" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>635254</v>
+        <v>927286</v>
       </c>
       <c r="C127" s="3">
-        <v>166046</v>
+        <v>242668</v>
       </c>
       <c r="D127" s="3">
-        <v>469208</v>
+        <v>684618</v>
       </c>
       <c r="E127" s="5">
         <v>2019</v>
@@ -4249,17 +4494,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="4" t="s">
-        <v>118</v>
+      <c r="A128" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>142945</v>
+        <v>208893</v>
       </c>
       <c r="C128" s="3">
-        <v>84400</v>
+        <v>123613</v>
       </c>
       <c r="D128" s="3">
-        <v>58545</v>
+        <v>85280</v>
       </c>
       <c r="E128" s="5">
         <v>2019</v>
@@ -4273,17 +4518,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="4" t="s">
-        <v>119</v>
+      <c r="A129" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>488777</v>
+        <v>713320</v>
       </c>
       <c r="C129" s="3">
-        <v>197490</v>
+        <v>289138</v>
       </c>
       <c r="D129" s="3">
-        <v>291287</v>
+        <v>424182</v>
       </c>
       <c r="E129" s="5">
         <v>2019</v>
@@ -4297,14 +4542,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="4" t="s">
-        <v>120</v>
+      <c r="A130" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C130" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -4321,17 +4566,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="4" t="s">
-        <v>121</v>
+      <c r="A131" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>541583</v>
+        <v>792007</v>
       </c>
       <c r="C131" s="3">
-        <v>344750</v>
+        <v>505033</v>
       </c>
       <c r="D131" s="3">
-        <v>196833</v>
+        <v>286973</v>
       </c>
       <c r="E131" s="5">
         <v>2019</v>
@@ -4345,17 +4590,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="4" t="s">
-        <v>122</v>
+      <c r="A132" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>17992</v>
+        <v>26141</v>
       </c>
       <c r="C132" s="3">
-        <v>10899</v>
+        <v>15801</v>
       </c>
       <c r="D132" s="3">
-        <v>7094</v>
+        <v>10340</v>
       </c>
       <c r="E132" s="5">
         <v>2019</v>
@@ -4369,17 +4614,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="4" t="s">
-        <v>123</v>
+      <c r="A133" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>12082</v>
+        <v>17671</v>
       </c>
       <c r="C133" s="3">
-        <v>3298</v>
+        <v>4821</v>
       </c>
       <c r="D133" s="3">
-        <v>8784</v>
+        <v>12851</v>
       </c>
       <c r="E133" s="5">
         <v>2019</v>
@@ -4393,17 +4638,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="4" t="s">
-        <v>124</v>
+      <c r="A134" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>79858</v>
+        <v>117121</v>
       </c>
       <c r="C134" s="3">
-        <v>61596</v>
+        <v>90475</v>
       </c>
       <c r="D134" s="3">
-        <v>18262</v>
+        <v>26646</v>
       </c>
       <c r="E134" s="5">
         <v>2019</v>
@@ -4417,17 +4662,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="4" t="s">
-        <v>125</v>
+      <c r="A135" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>1514</v>
+        <v>2204</v>
       </c>
       <c r="C135" s="3">
-        <v>1123</v>
+        <v>1638</v>
       </c>
       <c r="D135" s="2">
-        <v>391</v>
+        <v>567</v>
       </c>
       <c r="E135" s="5">
         <v>2019</v>
@@ -4441,17 +4686,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="4" t="s">
-        <v>126</v>
+      <c r="A136" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>682476</v>
+        <v>995495</v>
       </c>
       <c r="C136" s="3">
-        <v>512018</v>
+        <v>747183</v>
       </c>
       <c r="D136" s="3">
-        <v>170458</v>
+        <v>248312</v>
       </c>
       <c r="E136" s="5">
         <v>2019</v>
@@ -4465,17 +4710,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="4" t="s">
-        <v>127</v>
+      <c r="A137" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1731104</v>
+        <v>2535716</v>
       </c>
       <c r="C137" s="3">
-        <v>1499695</v>
+        <v>2198443</v>
       </c>
       <c r="D137" s="3">
-        <v>231409</v>
+        <v>337273</v>
       </c>
       <c r="E137" s="5">
         <v>2019</v>
@@ -4489,17 +4734,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="4" t="s">
-        <v>128</v>
+      <c r="A138" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>368264</v>
+        <v>539153</v>
       </c>
       <c r="C138" s="3">
-        <v>251748</v>
+        <v>369042</v>
       </c>
       <c r="D138" s="3">
-        <v>116516</v>
+        <v>170111</v>
       </c>
       <c r="E138" s="5">
         <v>2019</v>
@@ -4513,17 +4758,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="4" t="s">
-        <v>129</v>
+      <c r="A139" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>298</v>
+        <v>434</v>
       </c>
       <c r="C139" s="2">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="D139" s="2">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="E139" s="5">
         <v>2019</v>
@@ -4537,17 +4782,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="4" t="s">
-        <v>130</v>
+      <c r="A140" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>964617</v>
+        <v>1408924</v>
       </c>
       <c r="C140" s="3">
-        <v>484137</v>
+        <v>708799</v>
       </c>
       <c r="D140" s="3">
-        <v>480480</v>
+        <v>700125</v>
       </c>
       <c r="E140" s="5">
         <v>2019</v>
@@ -4561,17 +4806,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="4" t="s">
-        <v>131</v>
+      <c r="A141" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>1235638</v>
+        <v>1801785</v>
       </c>
       <c r="C141" s="3">
-        <v>241871</v>
+        <v>353938</v>
       </c>
       <c r="D141" s="3">
-        <v>993767</v>
+        <v>1447847</v>
       </c>
       <c r="E141" s="5">
         <v>2019</v>
@@ -4585,17 +4830,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="4" t="s">
-        <v>132</v>
+      <c r="A142" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>96550</v>
+        <v>141376</v>
       </c>
       <c r="C142" s="3">
-        <v>67045</v>
+        <v>98427</v>
       </c>
       <c r="D142" s="3">
-        <v>29504</v>
+        <v>42949</v>
       </c>
       <c r="E142" s="5">
         <v>2019</v>
@@ -4609,17 +4854,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="4" t="s">
-        <v>133</v>
+      <c r="A143" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>80431</v>
+        <v>117730</v>
       </c>
       <c r="C143" s="3">
-        <v>66909</v>
+        <v>98074</v>
       </c>
       <c r="D143" s="3">
-        <v>13522</v>
+        <v>19657</v>
       </c>
       <c r="E143" s="5">
         <v>2019</v>
@@ -4633,17 +4878,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="4" t="s">
-        <v>234</v>
+      <c r="A144" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>132603</v>
+        <v>194283</v>
       </c>
       <c r="C144" s="3">
-        <v>110315</v>
+        <v>161792</v>
       </c>
       <c r="D144" s="3">
-        <v>22287</v>
+        <v>32491</v>
       </c>
       <c r="E144" s="5">
         <v>2019</v>
@@ -4657,17 +4902,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="4" t="s">
-        <v>134</v>
+      <c r="A145" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>82828</v>
+        <v>121254</v>
       </c>
       <c r="C145" s="3">
-        <v>68902</v>
+        <v>100962</v>
       </c>
       <c r="D145" s="3">
-        <v>13926</v>
+        <v>20292</v>
       </c>
       <c r="E145" s="5">
         <v>2019</v>
@@ -4681,17 +4926,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="4" t="s">
-        <v>135</v>
+      <c r="A146" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>42095</v>
+        <v>61653</v>
       </c>
       <c r="C146" s="3">
-        <v>13253</v>
+        <v>19443</v>
       </c>
       <c r="D146" s="3">
-        <v>28843</v>
+        <v>42211</v>
       </c>
       <c r="E146" s="5">
         <v>2019</v>
@@ -4705,17 +4950,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="4" t="s">
-        <v>136</v>
+      <c r="A147" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>137103</v>
+        <v>200011</v>
       </c>
       <c r="C147" s="3">
-        <v>32737</v>
+        <v>47977</v>
       </c>
       <c r="D147" s="3">
-        <v>104366</v>
+        <v>152034</v>
       </c>
       <c r="E147" s="5">
         <v>2019</v>
@@ -4729,17 +4974,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="4" t="s">
-        <v>137</v>
+      <c r="A148" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>173922</v>
+        <v>254656</v>
       </c>
       <c r="C148" s="3">
-        <v>106379</v>
+        <v>156128</v>
       </c>
       <c r="D148" s="3">
-        <v>67543</v>
+        <v>98528</v>
       </c>
       <c r="E148" s="5">
         <v>2019</v>
@@ -4753,17 +4998,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="4" t="s">
-        <v>138</v>
+      <c r="A149" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>8652</v>
+        <v>12659</v>
       </c>
       <c r="C149" s="3">
-        <v>6342</v>
+        <v>9301</v>
       </c>
       <c r="D149" s="3">
-        <v>2311</v>
+        <v>3358</v>
       </c>
       <c r="E149" s="5">
         <v>2019</v>
@@ -4777,17 +5022,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="4" t="s">
-        <v>139</v>
+      <c r="A150" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>6343412</v>
+        <v>9265261</v>
       </c>
       <c r="C150" s="3">
-        <v>2724121</v>
+        <v>3986712</v>
       </c>
       <c r="D150" s="3">
-        <v>3619290</v>
+        <v>5278550</v>
       </c>
       <c r="E150" s="5">
         <v>2019</v>
@@ -4801,17 +5046,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="4" t="s">
-        <v>235</v>
+      <c r="A151" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>730375</v>
+        <v>1068852</v>
       </c>
       <c r="C151" s="3">
-        <v>435531</v>
+        <v>638019</v>
       </c>
       <c r="D151" s="3">
-        <v>294844</v>
+        <v>430834</v>
       </c>
       <c r="E151" s="5">
         <v>2019</v>
@@ -4825,17 +5070,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="4" t="s">
-        <v>236</v>
+      <c r="A152" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>220173</v>
+        <v>322255</v>
       </c>
       <c r="C152" s="3">
-        <v>190647</v>
+        <v>279261</v>
       </c>
       <c r="D152" s="3">
-        <v>29526</v>
+        <v>42994</v>
       </c>
       <c r="E152" s="5">
         <v>2019</v>
@@ -4849,17 +5094,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="4" t="s">
-        <v>140</v>
+      <c r="A153" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>78577</v>
+        <v>115014</v>
       </c>
       <c r="C153" s="3">
-        <v>72104</v>
+        <v>105603</v>
       </c>
       <c r="D153" s="3">
-        <v>6472</v>
+        <v>9410</v>
       </c>
       <c r="E153" s="5">
         <v>2019</v>
@@ -4873,17 +5118,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="4" t="s">
-        <v>141</v>
+      <c r="A154" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>892115</v>
+        <v>1304806</v>
       </c>
       <c r="C154" s="3">
-        <v>631125</v>
+        <v>924103</v>
       </c>
       <c r="D154" s="3">
-        <v>260990</v>
+        <v>380702</v>
       </c>
       <c r="E154" s="5">
         <v>2019</v>
@@ -4897,17 +5142,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="4" t="s">
-        <v>142</v>
+      <c r="A155" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>637128</v>
+        <v>939206</v>
       </c>
       <c r="C155" s="3">
-        <v>135127</v>
+        <v>197836</v>
       </c>
       <c r="D155" s="3">
-        <v>502001</v>
+        <v>741370</v>
       </c>
       <c r="E155" s="5">
         <v>2019</v>
@@ -4921,17 +5166,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="4" t="s">
-        <v>237</v>
+      <c r="A156" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>17138</v>
+        <v>24999</v>
       </c>
       <c r="C156" s="3">
-        <v>6987</v>
+        <v>10232</v>
       </c>
       <c r="D156" s="3">
-        <v>10151</v>
+        <v>14767</v>
       </c>
       <c r="E156" s="5">
         <v>2019</v>
@@ -4945,17 +5190,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="4" t="s">
-        <v>143</v>
+      <c r="A157" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>12131</v>
+        <v>17712</v>
       </c>
       <c r="C157" s="3">
-        <v>7083</v>
+        <v>10368</v>
       </c>
       <c r="D157" s="3">
-        <v>5049</v>
+        <v>7344</v>
       </c>
       <c r="E157" s="5">
         <v>2019</v>
@@ -4969,8 +5214,8 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="4" t="s">
-        <v>144</v>
+      <c r="A158" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
         <v>0</v>
@@ -4993,17 +5238,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="4" t="s">
-        <v>145</v>
+      <c r="A159" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>7452</v>
+        <v>10858</v>
       </c>
       <c r="C159" s="2">
-        <v>348</v>
+        <v>509</v>
       </c>
       <c r="D159" s="3">
-        <v>7104</v>
+        <v>10350</v>
       </c>
       <c r="E159" s="5">
         <v>2019</v>
@@ -5017,17 +5262,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="4" t="s">
-        <v>146</v>
+      <c r="A160" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>87514</v>
+        <v>127799</v>
       </c>
       <c r="C160" s="3">
-        <v>65874</v>
+        <v>96287</v>
       </c>
       <c r="D160" s="3">
-        <v>21640</v>
+        <v>31512</v>
       </c>
       <c r="E160" s="5">
         <v>2019</v>
@@ -5041,17 +5286,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="4" t="s">
-        <v>147</v>
+      <c r="A161" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>10775</v>
+        <v>15810</v>
       </c>
       <c r="C161" s="3">
-        <v>7308</v>
+        <v>10762</v>
       </c>
       <c r="D161" s="3">
-        <v>3467</v>
+        <v>5048</v>
       </c>
       <c r="E161" s="5">
         <v>2019</v>
@@ -5065,17 +5310,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="4" t="s">
-        <v>238</v>
+      <c r="A162" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
       </c>
       <c r="D162" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E162" s="5">
         <v>2019</v>
@@ -5089,17 +5334,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="4" t="s">
-        <v>148</v>
+      <c r="A163" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>16059838</v>
+        <v>23503845</v>
       </c>
       <c r="C163" s="3">
-        <v>8358795</v>
+        <v>12250630</v>
       </c>
       <c r="D163" s="3">
-        <v>7701043</v>
+        <v>11253215</v>
       </c>
       <c r="E163" s="5">
         <v>2019</v>
@@ -5113,14 +5358,14 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="4" t="s">
-        <v>149</v>
+      <c r="A164" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>3086</v>
+        <v>4547</v>
       </c>
       <c r="C164" s="3">
-        <v>3086</v>
+        <v>4546</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
@@ -5137,17 +5382,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="4" t="s">
-        <v>150</v>
+      <c r="A165" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>740818</v>
+        <v>1084367</v>
       </c>
       <c r="C165" s="3">
-        <v>447838</v>
+        <v>656528</v>
       </c>
       <c r="D165" s="3">
-        <v>292979</v>
+        <v>427839</v>
       </c>
       <c r="E165" s="5">
         <v>2019</v>
@@ -5161,14 +5406,14 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="4" t="s">
-        <v>151</v>
+      <c r="A166" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>1636</v>
+        <v>2394</v>
       </c>
       <c r="C166" s="3">
-        <v>1636</v>
+        <v>2393</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
@@ -5185,17 +5430,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="4" t="s">
-        <v>152</v>
+      <c r="A167" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>40171</v>
+        <v>58680</v>
       </c>
       <c r="C167" s="3">
-        <v>36050</v>
+        <v>52707</v>
       </c>
       <c r="D167" s="3">
-        <v>4121</v>
+        <v>5973</v>
       </c>
       <c r="E167" s="5">
         <v>2019</v>
@@ -5209,17 +5454,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="4" t="s">
-        <v>153</v>
+      <c r="A168" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>14521</v>
+        <v>21359</v>
       </c>
       <c r="C168" s="3">
-        <v>12864</v>
+        <v>18945</v>
       </c>
       <c r="D168" s="3">
-        <v>1657</v>
+        <v>2414</v>
       </c>
       <c r="E168" s="5">
         <v>2019</v>
@@ -5233,17 +5478,17 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="4" t="s">
-        <v>154</v>
+      <c r="A169" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>6389</v>
+        <v>9376</v>
       </c>
       <c r="C169" s="3">
-        <v>6319</v>
+        <v>9273</v>
       </c>
       <c r="D169" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E169" s="5">
         <v>2019</v>
@@ -5257,17 +5502,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="4" t="s">
-        <v>155</v>
+      <c r="A170" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>66440</v>
+        <v>97126</v>
       </c>
       <c r="C170" s="3">
-        <v>57325</v>
+        <v>83843</v>
       </c>
       <c r="D170" s="3">
-        <v>9115</v>
+        <v>13283</v>
       </c>
       <c r="E170" s="5">
         <v>2019</v>
@@ -5281,8 +5526,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="4" t="s">
-        <v>156</v>
+      <c r="A171" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -5305,17 +5550,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="4" t="s">
-        <v>157</v>
+      <c r="A172" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>5434592</v>
+        <v>7951423</v>
       </c>
       <c r="C172" s="3">
-        <v>1852549</v>
+        <v>2715547</v>
       </c>
       <c r="D172" s="3">
-        <v>3582043</v>
+        <v>5235875</v>
       </c>
       <c r="E172" s="5">
         <v>2019</v>
@@ -5329,14 +5574,14 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="4" t="s">
-        <v>158</v>
+      <c r="A173" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>2351</v>
+        <v>3476</v>
       </c>
       <c r="C173" s="3">
-        <v>2351</v>
+        <v>3475</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -5353,17 +5598,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="4" t="s">
-        <v>159</v>
+      <c r="A174" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2087490</v>
+        <v>3056819</v>
       </c>
       <c r="C174" s="3">
-        <v>819834</v>
+        <v>1201492</v>
       </c>
       <c r="D174" s="3">
-        <v>1267656</v>
+        <v>1855327</v>
       </c>
       <c r="E174" s="5">
         <v>2019</v>
@@ -5377,17 +5622,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="4" t="s">
-        <v>160</v>
+      <c r="A175" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>756074</v>
+        <v>1106970</v>
       </c>
       <c r="C175" s="3">
-        <v>509065</v>
+        <v>746299</v>
       </c>
       <c r="D175" s="3">
-        <v>247008</v>
+        <v>360671</v>
       </c>
       <c r="E175" s="5">
         <v>2019</v>
@@ -5401,17 +5646,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="4" t="s">
-        <v>161</v>
+      <c r="A176" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>1921</v>
+        <v>2823</v>
       </c>
       <c r="C176" s="3">
-        <v>1878</v>
+        <v>2759</v>
       </c>
       <c r="D176" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E176" s="5">
         <v>2019</v>
@@ -5425,17 +5670,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="4" t="s">
-        <v>162</v>
+      <c r="A177" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>108021</v>
+        <v>158083</v>
       </c>
       <c r="C177" s="3">
-        <v>79117</v>
+        <v>115932</v>
       </c>
       <c r="D177" s="3">
-        <v>28904</v>
+        <v>42151</v>
       </c>
       <c r="E177" s="5">
         <v>2019</v>
@@ -5449,17 +5694,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="4" t="s">
-        <v>163</v>
+      <c r="A178" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>68235</v>
+        <v>99458</v>
       </c>
       <c r="C178" s="3">
-        <v>35368</v>
+        <v>51597</v>
       </c>
       <c r="D178" s="3">
-        <v>32867</v>
+        <v>47861</v>
       </c>
       <c r="E178" s="5">
         <v>2019</v>
@@ -5473,14 +5718,14 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="4" t="s">
-        <v>164</v>
+      <c r="A179" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>3099</v>
+        <v>4543</v>
       </c>
       <c r="C179" s="3">
-        <v>3099</v>
+        <v>4542</v>
       </c>
       <c r="D179" s="2">
         <v>0</v>
@@ -5497,17 +5742,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="4" t="s">
-        <v>165</v>
+      <c r="A180" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>167273</v>
+        <v>245047</v>
       </c>
       <c r="C180" s="3">
-        <v>150469</v>
+        <v>220517</v>
       </c>
       <c r="D180" s="3">
-        <v>16805</v>
+        <v>24530</v>
       </c>
       <c r="E180" s="5">
         <v>2019</v>
@@ -5521,17 +5766,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="4" t="s">
-        <v>166</v>
+      <c r="A181" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>352813</v>
+        <v>516430</v>
       </c>
       <c r="C181" s="3">
-        <v>191550</v>
+        <v>280750</v>
       </c>
       <c r="D181" s="3">
-        <v>161263</v>
+        <v>235681</v>
       </c>
       <c r="E181" s="5">
         <v>2019</v>
@@ -5545,14 +5790,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="2">
-        <v>850</v>
-      </c>
-      <c r="C182" s="2">
-        <v>850</v>
+      <c r="A182" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1248</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1248</v>
       </c>
       <c r="D182" s="2">
         <v>0</v>
@@ -5569,14 +5814,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="4" t="s">
-        <v>168</v>
+      <c r="A183" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="2">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="C183" s="2">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5593,17 +5838,17 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="4" t="s">
-        <v>169</v>
+      <c r="A184" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>2060</v>
+        <v>3015</v>
       </c>
       <c r="C184" s="3">
-        <v>2060</v>
+        <v>3014</v>
       </c>
       <c r="D184" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="5">
         <v>2019</v>
@@ -5617,17 +5862,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="4" t="s">
-        <v>170</v>
+      <c r="A185" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>144337</v>
+        <v>211369</v>
       </c>
       <c r="C185" s="3">
-        <v>131156</v>
+        <v>192156</v>
       </c>
       <c r="D185" s="3">
-        <v>13181</v>
+        <v>19213</v>
       </c>
       <c r="E185" s="5">
         <v>2019</v>
@@ -5641,17 +5886,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="4" t="s">
-        <v>171</v>
+      <c r="A186" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>15209</v>
+        <v>22276</v>
       </c>
       <c r="C186" s="3">
-        <v>12788</v>
+        <v>18749</v>
       </c>
       <c r="D186" s="3">
-        <v>2420</v>
+        <v>3527</v>
       </c>
       <c r="E186" s="5">
         <v>2019</v>
@@ -5665,17 +5910,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="4" t="s">
-        <v>172</v>
+      <c r="A187" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>34066</v>
+        <v>49941</v>
       </c>
       <c r="C187" s="3">
-        <v>33780</v>
+        <v>49523</v>
       </c>
       <c r="D187" s="2">
-        <v>286</v>
+        <v>417</v>
       </c>
       <c r="E187" s="5">
         <v>2019</v>
@@ -5689,17 +5934,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="4" t="s">
-        <v>173</v>
+      <c r="A188" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>44309</v>
+        <v>64958</v>
       </c>
       <c r="C188" s="3">
-        <v>43313</v>
-      </c>
-      <c r="D188" s="2">
-        <v>997</v>
+        <v>63507</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1452</v>
       </c>
       <c r="E188" s="5">
         <v>2019</v>
@@ -5713,17 +5958,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="4" t="s">
-        <v>174</v>
+      <c r="A189" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>33848</v>
+        <v>49594</v>
       </c>
       <c r="C189" s="3">
-        <v>33712</v>
+        <v>49397</v>
       </c>
       <c r="D189" s="2">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="E189" s="5">
         <v>2019</v>
@@ -5737,17 +5982,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B190" s="2">
-        <v>990</v>
-      </c>
-      <c r="C190" s="2">
-        <v>988</v>
+      <c r="A190" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1455</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1451</v>
       </c>
       <c r="D190" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E190" s="5">
         <v>2019</v>
@@ -5761,17 +6006,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="4" t="s">
-        <v>176</v>
+      <c r="A191" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>3227338</v>
+        <v>4724709</v>
       </c>
       <c r="C191" s="3">
-        <v>2477925</v>
+        <v>3629590</v>
       </c>
       <c r="D191" s="3">
-        <v>749413</v>
+        <v>1095118</v>
       </c>
       <c r="E191" s="5">
         <v>2019</v>
@@ -5785,17 +6030,17 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="4" t="s">
-        <v>177</v>
+      <c r="A192" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C192" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D192" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" s="5">
         <v>2019</v>
@@ -5809,17 +6054,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="4" t="s">
-        <v>178</v>
+      <c r="A193" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>33366</v>
+        <v>48905</v>
       </c>
       <c r="C193" s="3">
-        <v>32658</v>
-      </c>
-      <c r="D193" s="2">
-        <v>708</v>
+        <v>47869</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1037</v>
       </c>
       <c r="E193" s="5">
         <v>2019</v>
@@ -5833,17 +6078,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="4" t="s">
-        <v>179</v>
+      <c r="A194" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>484381</v>
+        <v>711486</v>
       </c>
       <c r="C194" s="3">
-        <v>481167</v>
+        <v>706791</v>
       </c>
       <c r="D194" s="3">
-        <v>3214</v>
+        <v>4694</v>
       </c>
       <c r="E194" s="5">
         <v>2019</v>
@@ -5857,17 +6102,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="4" t="s">
-        <v>180</v>
+      <c r="A195" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>99480</v>
+        <v>145760</v>
       </c>
       <c r="C195" s="3">
-        <v>98863</v>
+        <v>144858</v>
       </c>
       <c r="D195" s="2">
-        <v>617</v>
+        <v>902</v>
       </c>
       <c r="E195" s="5">
         <v>2019</v>
@@ -5881,17 +6126,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="4" t="s">
-        <v>181</v>
+      <c r="A196" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1134819</v>
+        <v>1660876</v>
       </c>
       <c r="C196" s="3">
-        <v>496801</v>
+        <v>728413</v>
       </c>
       <c r="D196" s="3">
-        <v>638018</v>
+        <v>932463</v>
       </c>
       <c r="E196" s="5">
         <v>2019</v>
@@ -5905,17 +6150,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="4" t="s">
-        <v>239</v>
+      <c r="A197" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>90271</v>
+        <v>131619</v>
       </c>
       <c r="C197" s="3">
-        <v>31848</v>
+        <v>46711</v>
       </c>
       <c r="D197" s="3">
-        <v>58423</v>
+        <v>84908</v>
       </c>
       <c r="E197" s="5">
         <v>2019</v>
@@ -5929,14 +6174,14 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="4" t="s">
-        <v>240</v>
+      <c r="A198" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2">
         <v>0</v>
@@ -5953,17 +6198,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B199" s="2">
-        <v>998</v>
-      </c>
-      <c r="C199" s="2">
-        <v>991</v>
+      <c r="A199" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1469</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1457</v>
       </c>
       <c r="D199" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E199" s="5">
         <v>2019</v>
@@ -5977,14 +6222,14 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="4" t="s">
-        <v>183</v>
+      <c r="A200" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>389</v>
+        <v>567</v>
       </c>
       <c r="C200" s="2">
-        <v>388</v>
+        <v>567</v>
       </c>
       <c r="D200" s="2">
         <v>0</v>
@@ -6001,14 +6246,14 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="4" t="s">
-        <v>184</v>
+      <c r="A201" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="2">
-        <v>646</v>
+        <v>947</v>
       </c>
       <c r="C201" s="2">
-        <v>645</v>
+        <v>947</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -6025,17 +6270,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="4" t="s">
-        <v>185</v>
+      <c r="A202" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>65742</v>
+        <v>96296</v>
       </c>
       <c r="C202" s="3">
-        <v>61477</v>
+        <v>90061</v>
       </c>
       <c r="D202" s="3">
-        <v>4265</v>
+        <v>6235</v>
       </c>
       <c r="E202" s="5">
         <v>2019</v>
@@ -6049,17 +6294,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="4" t="s">
-        <v>241</v>
+      <c r="A203" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>13498</v>
+        <v>19776</v>
       </c>
       <c r="C203" s="3">
-        <v>12112</v>
+        <v>17756</v>
       </c>
       <c r="D203" s="3">
-        <v>1386</v>
+        <v>2020</v>
       </c>
       <c r="E203" s="5">
         <v>2019</v>
@@ -6073,17 +6318,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="4" t="s">
-        <v>186</v>
+      <c r="A204" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>95368</v>
+        <v>139146</v>
       </c>
       <c r="C204" s="3">
-        <v>22739</v>
+        <v>33349</v>
       </c>
       <c r="D204" s="3">
-        <v>72629</v>
+        <v>105797</v>
       </c>
       <c r="E204" s="5">
         <v>2019</v>
@@ -6097,14 +6342,14 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="4" t="s">
-        <v>187</v>
+      <c r="A205" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C205" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -6121,17 +6366,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="4" t="s">
-        <v>242</v>
+      <c r="A206" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>265607</v>
+        <v>388671</v>
       </c>
       <c r="C206" s="3">
-        <v>95735</v>
+        <v>140291</v>
       </c>
       <c r="D206" s="3">
-        <v>169872</v>
+        <v>248380</v>
       </c>
       <c r="E206" s="5">
         <v>2019</v>
@@ -6145,17 +6390,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="4" t="s">
-        <v>188</v>
+      <c r="A207" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>414464</v>
+        <v>602642</v>
       </c>
       <c r="C207" s="3">
-        <v>73540</v>
+        <v>107591</v>
       </c>
       <c r="D207" s="3">
-        <v>340923</v>
+        <v>495050</v>
       </c>
       <c r="E207" s="5">
         <v>2019</v>
@@ -6169,17 +6414,17 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="4" t="s">
-        <v>189</v>
+      <c r="A208" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C208" s="2">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D208" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" s="5">
         <v>2019</v>
@@ -6193,17 +6438,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B209" s="2">
-        <v>776</v>
-      </c>
-      <c r="C209" s="2">
-        <v>770</v>
+      <c r="A209" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1133</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1124</v>
       </c>
       <c r="D209" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E209" s="5">
         <v>2019</v>
@@ -6217,14 +6462,14 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="4" t="s">
-        <v>191</v>
+      <c r="A210" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C210" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D210" s="2">
         <v>0</v>
@@ -6241,14 +6486,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B211" s="2">
-        <v>765</v>
-      </c>
-      <c r="C211" s="2">
-        <v>764</v>
+      <c r="A211" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1119</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1119</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6265,14 +6510,14 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="4" t="s">
-        <v>193</v>
+      <c r="A212" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>542</v>
+        <v>796</v>
       </c>
       <c r="C212" s="2">
-        <v>541</v>
+        <v>794</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
@@ -6289,17 +6534,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="4" t="s">
-        <v>194</v>
+      <c r="A213" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>37091914</v>
+        <v>54281269</v>
       </c>
       <c r="C213" s="3">
-        <v>29010839</v>
+        <v>42481450</v>
       </c>
       <c r="D213" s="3">
-        <v>8081076</v>
+        <v>11799819</v>
       </c>
       <c r="E213" s="5">
         <v>2019</v>
@@ -6313,17 +6558,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="4" t="s">
-        <v>195</v>
+      <c r="A214" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3840839</v>
+        <v>5622981</v>
       </c>
       <c r="C214" s="3">
-        <v>2182772</v>
+        <v>3196045</v>
       </c>
       <c r="D214" s="3">
-        <v>1658067</v>
+        <v>2426936</v>
       </c>
       <c r="E214" s="5">
         <v>2019</v>
@@ -6337,17 +6582,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="4" t="s">
-        <v>196</v>
+      <c r="A215" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>33240390</v>
+        <v>48642646</v>
       </c>
       <c r="C215" s="3">
-        <v>26826670</v>
+        <v>39283348</v>
       </c>
       <c r="D215" s="3">
-        <v>6413720</v>
+        <v>9359298</v>
       </c>
       <c r="E215" s="5">
         <v>2019</v>
@@ -6361,17 +6606,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="4" t="s">
-        <v>243</v>
+      <c r="A216" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>9409</v>
+        <v>13760</v>
       </c>
       <c r="C216" s="2">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="D216" s="3">
-        <v>9289</v>
+        <v>13586</v>
       </c>
       <c r="E216" s="5">
         <v>2019</v>
@@ -6385,14 +6630,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="4" t="s">
-        <v>197</v>
+      <c r="A217" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>1098</v>
+        <v>1622</v>
       </c>
       <c r="C217" s="3">
-        <v>1098</v>
+        <v>1622</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -6409,17 +6654,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="4" t="s">
-        <v>198</v>
+      <c r="A218" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="C218" s="2">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="5">
         <v>2019</v>
@@ -6433,17 +6678,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="4" t="s">
-        <v>244</v>
+      <c r="A219" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>10940150</v>
+        <v>16011462</v>
       </c>
       <c r="C219" s="3">
-        <v>3216221</v>
+        <v>4713215</v>
       </c>
       <c r="D219" s="3">
-        <v>7723928</v>
+        <v>11298246</v>
       </c>
       <c r="E219" s="5">
         <v>2019</v>
@@ -6457,17 +6702,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="4" t="s">
-        <v>245</v>
+      <c r="A220" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>9359089</v>
+        <v>13698641</v>
       </c>
       <c r="C220" s="3">
-        <v>2620307</v>
+        <v>3839064</v>
       </c>
       <c r="D220" s="3">
-        <v>6738782</v>
+        <v>9859577</v>
       </c>
       <c r="E220" s="5">
         <v>2019</v>
@@ -6481,14 +6726,14 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="4" t="s">
-        <v>246</v>
+      <c r="A221" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="2">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="C221" s="2">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="D221" s="2">
         <v>0</v>
@@ -6505,17 +6750,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="4" t="s">
-        <v>199</v>
+      <c r="A222" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>20552</v>
+        <v>30090</v>
       </c>
       <c r="C222" s="3">
-        <v>19956</v>
+        <v>29221</v>
       </c>
       <c r="D222" s="2">
-        <v>597</v>
+        <v>869</v>
       </c>
       <c r="E222" s="5">
         <v>2019</v>
@@ -6529,8 +6774,8 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="4" t="s">
-        <v>200</v>
+      <c r="A223" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
         <v>0</v>
@@ -6539,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="5">
         <v>2019</v>
@@ -6553,8 +6798,8 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="4" t="s">
-        <v>201</v>
+      <c r="A224" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2">
         <v>0</v>
@@ -6563,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="5">
         <v>2019</v>
@@ -6577,17 +6822,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="4" t="s">
-        <v>247</v>
+      <c r="A225" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C225" s="2">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E225" s="5">
         <v>2019</v>
@@ -6601,17 +6846,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="4" t="s">
-        <v>202</v>
+      <c r="A226" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>59284</v>
+        <v>86379</v>
       </c>
       <c r="C226" s="3">
-        <v>13516</v>
+        <v>19680</v>
       </c>
       <c r="D226" s="3">
-        <v>45769</v>
+        <v>66699</v>
       </c>
       <c r="E226" s="5">
         <v>2019</v>
@@ -6625,17 +6870,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="4" t="s">
-        <v>203</v>
+      <c r="A227" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>3645</v>
+        <v>5330</v>
       </c>
       <c r="C227" s="3">
-        <v>3075</v>
+        <v>4501</v>
       </c>
       <c r="D227" s="2">
-        <v>570</v>
+        <v>829</v>
       </c>
       <c r="E227" s="5">
         <v>2019</v>
@@ -6649,17 +6894,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="4" t="s">
-        <v>204</v>
+      <c r="A228" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>1054878</v>
+        <v>1542295</v>
       </c>
       <c r="C228" s="3">
-        <v>319374</v>
+        <v>467899</v>
       </c>
       <c r="D228" s="3">
-        <v>735504</v>
+        <v>1074395</v>
       </c>
       <c r="E228" s="5">
         <v>2019</v>
@@ -6673,17 +6918,17 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="4" t="s">
-        <v>205</v>
+      <c r="A229" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C229" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="5">
         <v>2019</v>
@@ -6697,17 +6942,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="4" t="s">
-        <v>248</v>
+      <c r="A230" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>208334</v>
+        <v>304483</v>
       </c>
       <c r="C230" s="3">
-        <v>44911</v>
+        <v>65844</v>
       </c>
       <c r="D230" s="3">
-        <v>163424</v>
+        <v>238639</v>
       </c>
       <c r="E230" s="5">
         <v>2019</v>
@@ -6721,17 +6966,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="4" t="s">
-        <v>206</v>
+      <c r="A231" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C231" s="2">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="5">
         <v>2019</v>
@@ -6745,17 +6990,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="4" t="s">
-        <v>207</v>
+      <c r="A232" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>36145</v>
+        <v>52739</v>
       </c>
       <c r="C232" s="3">
-        <v>4532</v>
+        <v>6677</v>
       </c>
       <c r="D232" s="3">
-        <v>31613</v>
+        <v>46063</v>
       </c>
       <c r="E232" s="5">
         <v>2019</v>
@@ -6769,14 +7014,14 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="4" t="s">
-        <v>208</v>
+      <c r="A233" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>1104</v>
+        <v>1615</v>
       </c>
       <c r="C233" s="3">
-        <v>1104</v>
+        <v>1615</v>
       </c>
       <c r="D233" s="2">
         <v>0</v>
@@ -6793,8 +7038,8 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="4" t="s">
-        <v>209</v>
+      <c r="A234" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -6803,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="5">
         <v>2019</v>
@@ -6817,8 +7062,8 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="4" t="s">
-        <v>210</v>
+      <c r="A235" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -6827,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="5">
         <v>2019</v>
@@ -6841,17 +7086,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="4" t="s">
-        <v>211</v>
+      <c r="A236" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>3088</v>
+        <v>4524</v>
       </c>
       <c r="C236" s="3">
-        <v>3071</v>
+        <v>4500</v>
       </c>
       <c r="D236" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E236" s="5">
         <v>2019</v>
@@ -6865,17 +7110,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="4" t="s">
-        <v>212</v>
+      <c r="A237" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="3">
-        <v>1001</v>
+        <v>1470</v>
       </c>
       <c r="C237" s="3">
-        <v>1001</v>
+        <v>1470</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E237" s="5">
         <v>2019</v>
@@ -6889,17 +7134,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="4" t="s">
-        <v>213</v>
+      <c r="A238" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="2">
-        <v>675</v>
+        <v>990</v>
       </c>
       <c r="C238" s="2">
-        <v>675</v>
+        <v>990</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="5">
         <v>2019</v>
@@ -6913,17 +7158,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="4" t="s">
-        <v>214</v>
+      <c r="A239" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>2072</v>
-      </c>
-      <c r="C239" s="2">
-        <v>991</v>
+        <v>3025</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1450</v>
       </c>
       <c r="D239" s="3">
-        <v>1081</v>
+        <v>1575</v>
       </c>
       <c r="E239" s="5">
         <v>2019</v>
@@ -6937,17 +7182,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="4" t="s">
-        <v>215</v>
+      <c r="A240" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>182034</v>
+        <v>267799</v>
       </c>
       <c r="C240" s="3">
-        <v>175655</v>
+        <v>258506</v>
       </c>
       <c r="D240" s="3">
-        <v>6379</v>
+        <v>9293</v>
       </c>
       <c r="E240" s="5">
         <v>2019</v>
@@ -6961,14 +7206,14 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B241" s="2">
-        <v>897</v>
-      </c>
-      <c r="C241" s="2">
-        <v>897</v>
+      <c r="A241" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1318</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1318</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -6985,17 +7230,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="4" t="s">
-        <v>217</v>
+      <c r="A242" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>5052</v>
+        <v>7397</v>
       </c>
       <c r="C242" s="3">
-        <v>4886</v>
+        <v>7155</v>
       </c>
       <c r="D242" s="2">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="E242" s="5">
         <v>2019</v>
@@ -7009,14 +7254,14 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="4" t="s">
-        <v>218</v>
+      <c r="A243" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C243" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D243" s="2">
         <v>0</v>
@@ -7033,17 +7278,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="4" t="s">
-        <v>249</v>
+      <c r="A244" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>1923</v>
+        <v>2816</v>
       </c>
       <c r="C244" s="3">
-        <v>1896</v>
+        <v>2776</v>
       </c>
       <c r="D244" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E244" s="5">
         <v>2019</v>
@@ -7057,17 +7302,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="4" t="s">
-        <v>219</v>
+      <c r="A245" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>25702</v>
+        <v>37450</v>
       </c>
       <c r="C245" s="2">
         <v>1</v>
       </c>
       <c r="D245" s="3">
-        <v>25702</v>
+        <v>37450</v>
       </c>
       <c r="E245" s="5">
         <v>2019</v>
